--- a/Stocks/PCJEWELLER.xlsx
+++ b/Stocks/PCJEWELLER.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>423.86666666666662</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>253.9720580887174</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>250.80726015269855</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>48.843827551733824</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>3.2999999999999829</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>5.5999999999999943</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.58928571428571186</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>303.93627219577644</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>-43.051813017677546</v>
       </c>
       <c r="Y67">
         <v>-50.613272162174475</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>352.5</v>
+      </c>
+      <c r="D83">
+        <v>356.35</v>
+      </c>
+      <c r="E83">
+        <v>349.25</v>
+      </c>
+      <c r="F83">
+        <v>352.35</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>352.65000000000003</v>
+      </c>
+      <c r="H83">
+        <v>358.6976977853102</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J83">
+        <v>361.14642648073561</v>
+      </c>
+      <c r="K83">
+        <v>344.37736704812318</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>52.016061808210637</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>3.1000000000000227</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>7.1000000000000227</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.43661971830986096</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>343.12453709905418</v>
+      </c>
+      <c r="W83">
+        <v>328.39560878892945</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>14.728928310124729</v>
+      </c>
+      <c r="Y83">
+        <v>4.9277803870564263</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>348.55</v>
+      </c>
+      <c r="D84">
+        <v>362.45</v>
+      </c>
+      <c r="E84">
+        <v>347.7</v>
+      </c>
+      <c r="F84">
+        <v>350</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>353.38333333333338</v>
+      </c>
+      <c r="H84">
+        <v>356.04051555932176</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>361.43610948501657</v>
+      </c>
+      <c r="K84">
+        <v>345.11572992631801</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>49.118446945453435</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>2.3000000000000114</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>14.75</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.15593220338983127</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>344.18230062227661</v>
+      </c>
+      <c r="W84">
+        <v>329.99593406382354</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>14.186366558453074</v>
+      </c>
+      <c r="Y84">
+        <v>6.7794976213357554</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>353.6</v>
+      </c>
+      <c r="D85">
+        <v>358.95</v>
+      </c>
+      <c r="E85">
+        <v>350.6</v>
+      </c>
+      <c r="F85">
+        <v>353.45</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>354.33333333333331</v>
+      </c>
+      <c r="H85">
+        <v>355.18692444632757</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>360.88364071056844</v>
+      </c>
+      <c r="K85">
+        <v>346.33445660935848</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>53.837489144998784</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>2.8499999999999659</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>8.3499999999999659</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.34131736526945838</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>345.60810052654176</v>
+      </c>
+      <c r="W85">
+        <v>331.73327228131808</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>13.874828245223682</v>
+      </c>
+      <c r="Y85">
+        <v>8.19856374611334</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>356</v>
+      </c>
+      <c r="D86">
+        <v>358.5</v>
+      </c>
+      <c r="E86">
+        <v>348</v>
+      </c>
+      <c r="F86">
+        <v>356.5</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>354.33333333333331</v>
+      </c>
+      <c r="H86">
+        <v>354.76012888983041</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>360.35394277488655</v>
+      </c>
+      <c r="K86">
+        <v>346.70457736283436</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>58.128886865313412</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>8.5</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>10.5</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.80952380952380953</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>347.28377736861228</v>
+      </c>
+      <c r="W86">
+        <v>333.56784470492414</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>13.715932663688136</v>
+      </c>
+      <c r="Y86">
+        <v>9.3020375296282989</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>357</v>
+      </c>
+      <c r="D87">
+        <v>361.5</v>
+      </c>
+      <c r="E87">
+        <v>350</v>
+      </c>
+      <c r="F87">
+        <v>351.8</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>354.43333333333334</v>
+      </c>
+      <c r="H87">
+        <v>354.5967311115819</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J87">
+        <v>360.60862215824511</v>
+      </c>
+      <c r="K87">
+        <v>347.43689350442673</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>49.300718216087262</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>1.8000000000000114</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>11.5</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.15652173913043577</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>347.97858085036421</v>
+      </c>
+      <c r="W87">
+        <v>334.91837472678162</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>13.060206123582589</v>
+      </c>
+      <c r="Y87">
+        <v>10.053671248419157</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>352</v>
+      </c>
+      <c r="D88">
+        <v>365.9</v>
+      </c>
+      <c r="E88">
+        <v>350.1</v>
+      </c>
+      <c r="F88">
+        <v>356.3</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>357.43333333333334</v>
+      </c>
+      <c r="H88">
+        <v>356.01503222245765</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>361.78448390085731</v>
+      </c>
+      <c r="K88">
+        <v>348.02869494788746</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>57.098571149994569</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>6.1999999999999886</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>15.799999999999955</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.39240506329113967</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>349.25879918107739</v>
+      </c>
+      <c r="W88">
+        <v>336.50219882109411</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>12.756600359983281</v>
+      </c>
+      <c r="Y88">
+        <v>10.594257070731981</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>356.3</v>
+      </c>
+      <c r="D89">
+        <v>364.9</v>
+      </c>
+      <c r="E89">
+        <v>353.75</v>
+      </c>
+      <c r="F89">
+        <v>363.25</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>360.63333333333338</v>
+      </c>
+      <c r="H89">
+        <v>358.32418277789554</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>362.47682081177788</v>
+      </c>
+      <c r="K89">
+        <v>349.30009607057912</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>66.920808478621268</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>9.5</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>11.149999999999977</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.85201793721973262</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V89">
+        <v>351.41129161475777</v>
+      </c>
+      <c r="W89">
+        <v>338.48351742693899</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>12.927774187818784</v>
+      </c>
+      <c r="Y89">
+        <v>11.060960494149342</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>361.5</v>
+      </c>
+      <c r="D90">
+        <v>365.8</v>
+      </c>
+      <c r="E90">
+        <v>358.65</v>
+      </c>
+      <c r="F90">
+        <v>360.1</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>361.51666666666671</v>
+      </c>
+      <c r="H90">
+        <v>359.92042472228115</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>363.21530507582725</v>
+      </c>
+      <c r="K90">
+        <v>351.37785249933933</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>59.237141677232728</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>1.4500000000000455</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>7.1500000000000341</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.2027972027972082</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>352.74801598171814</v>
+      </c>
+      <c r="W90">
+        <v>340.08473835827687</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>12.663277623441274</v>
+      </c>
+      <c r="Y90">
+        <v>11.381423920007729</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>363.5</v>
+      </c>
+      <c r="D91">
+        <v>364</v>
+      </c>
+      <c r="E91">
+        <v>356.9</v>
+      </c>
+      <c r="F91">
+        <v>360.15</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>360.34999999999997</v>
+      </c>
+      <c r="H91">
+        <v>360.13521236114059</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>363.38968172564341</v>
+      </c>
+      <c r="K91">
+        <v>352.60499638837501</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>59.329793333516733</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>3.25</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>7.1000000000000227</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.45774647887323799</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>353.88678275376151</v>
+      </c>
+      <c r="W91">
+        <v>341.57105403544153</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>12.315728718319974</v>
+      </c>
+      <c r="Y91">
+        <v>11.568284879670177</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>370</v>
+      </c>
+      <c r="D92">
+        <v>370.35</v>
+      </c>
+      <c r="E92">
+        <v>346</v>
+      </c>
+      <c r="F92">
+        <v>349.9</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>355.41666666666669</v>
+      </c>
+      <c r="H92">
+        <v>357.77593951390361</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>364.9364191199449</v>
+      </c>
+      <c r="K92">
+        <v>351.13721941318056</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N92">
+        <v>37.492562779840931</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>3.8999999999999773</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>24.350000000000023</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.16016427104722683</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V92">
+        <v>353.27343156087511</v>
+      </c>
+      <c r="W92">
+        <v>342.18801299577922</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>11.085418565095893</v>
+      </c>
+      <c r="Y92">
+        <v>11.47171161675532</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>354.15</v>
+      </c>
+      <c r="D93">
+        <v>357.6</v>
+      </c>
+      <c r="E93">
+        <v>350.5</v>
+      </c>
+      <c r="F93">
+        <v>352</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>353.36666666666662</v>
+      </c>
+      <c r="H93">
+        <v>355.57130309028514</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>363.30610375995713</v>
+      </c>
+      <c r="K93">
+        <v>350.99561509914042</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>42.877009701123967</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>1.5</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>7.1000000000000227</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.21126760563380215</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>353.07751901304817</v>
+      </c>
+      <c r="W93">
+        <v>342.91482684794374</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>10.162692165104431</v>
+      </c>
+      <c r="Y93">
+        <v>11.209907726425142</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>355.8</v>
+      </c>
+      <c r="D94">
+        <v>356.15</v>
+      </c>
+      <c r="E94">
+        <v>348.25</v>
+      </c>
+      <c r="F94">
+        <v>351.4</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>351.93333333333334</v>
+      </c>
+      <c r="H94">
+        <v>353.75231821180921</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J94">
+        <v>361.71585847996664</v>
+      </c>
+      <c r="K94">
+        <v>350.38547841044254</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N94">
+        <v>41.597285547705013</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>3.1499999999999773</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>7.8999999999999773</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.39873417721518817</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>352.81943916488689</v>
+      </c>
+      <c r="W94">
+        <v>343.5433581925405</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>9.2760809723463922</v>
+      </c>
+      <c r="Y94">
+        <v>10.823142375609391</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>353</v>
+      </c>
+      <c r="D95">
+        <v>355.5</v>
+      </c>
+      <c r="E95">
+        <v>347.65</v>
+      </c>
+      <c r="F95">
+        <v>349.1</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>350.75</v>
+      </c>
+      <c r="H95">
+        <v>352.25115910590461</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>360.33455659552959</v>
+      </c>
+      <c r="K95">
+        <v>349.77759431923306</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N95">
+        <v>36.392630780327224</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>1.4500000000000455</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>7.8500000000000227</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.1847133757961836</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V95">
+        <v>352.24721775490428</v>
+      </c>
+      <c r="W95">
+        <v>343.95496128938936</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>8.2922564655149245</v>
+      </c>
+      <c r="Y95">
+        <v>10.316965193590498</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>351.85</v>
+      </c>
+      <c r="D96">
+        <v>352</v>
+      </c>
+      <c r="E96">
+        <v>337.6</v>
+      </c>
+      <c r="F96">
+        <v>341</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>343.5333333333333</v>
+      </c>
+      <c r="H96">
+        <v>347.89224621961898</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>358.48243290763412</v>
+      </c>
+      <c r="K96">
+        <v>347.07146224829239</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N96">
+        <v>23.467000787244523</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>3.3999999999999773</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>14.399999999999977</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.23611111111110991</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>350.51687656184208</v>
+      </c>
+      <c r="W96">
+        <v>343.73607526795308</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>6.7808012938889988</v>
+      </c>
+      <c r="Y96">
+        <v>9.6097324136501978</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>338.2</v>
+      </c>
+      <c r="D97">
+        <v>351.8</v>
+      </c>
+      <c r="E97">
+        <v>338.2</v>
+      </c>
+      <c r="F97">
+        <v>347.1</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>345.7</v>
+      </c>
+      <c r="H97">
+        <v>346.79612310980951</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>356.99744781704874</v>
+      </c>
+      <c r="K97">
+        <v>345.10002619311632</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>42.643712203373099</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>8.9000000000000341</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>13.600000000000023</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.6544117647058838</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>349.99120324463559</v>
+      </c>
+      <c r="W97">
+        <v>343.98525487773435</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>6.0059483669012366</v>
+      </c>
+      <c r="Y97">
+        <v>8.8889756043004056</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>352</v>
+      </c>
+      <c r="D98">
+        <v>353.2</v>
+      </c>
+      <c r="E98">
+        <v>347.25</v>
+      </c>
+      <c r="F98">
+        <v>350</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>350.15000000000003</v>
+      </c>
+      <c r="H98">
+        <v>348.4730615549048</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>356.15357052437122</v>
+      </c>
+      <c r="K98">
+        <v>345.5777981502016</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>50.077347167535699</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>2.75</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>5.9499999999999886</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.46218487394958069</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>349.99255659161474</v>
+      </c>
+      <c r="W98">
+        <v>344.43079155345771</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>5.5617650381570343</v>
+      </c>
+      <c r="Y98">
+        <v>8.2235334910717306</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>350.7</v>
+      </c>
+      <c r="D99">
+        <v>355.4</v>
+      </c>
+      <c r="E99">
+        <v>344.5</v>
+      </c>
+      <c r="F99">
+        <v>348.8</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>349.56666666666666</v>
+      </c>
+      <c r="H99">
+        <v>349.01986411078576</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>355.98611040784425</v>
+      </c>
+      <c r="K99">
+        <v>345.33828745015683</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>46.931226600139468</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>4.3000000000000114</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>10.899999999999977</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.39449541284403855</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>349.80908634675092</v>
+      </c>
+      <c r="W99">
+        <v>344.75443662357196</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>5.0546497231789544</v>
+      </c>
+      <c r="Y99">
+        <v>7.5897567374931754</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>349.1</v>
+      </c>
+      <c r="D100">
+        <v>350.75</v>
+      </c>
+      <c r="E100">
+        <v>344.55</v>
+      </c>
+      <c r="F100">
+        <v>345</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>346.76666666666665</v>
+      </c>
+      <c r="H100">
+        <v>347.89326538872621</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>354.82253031721217</v>
+      </c>
+      <c r="K100">
+        <v>345.16311246123308</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N100">
+        <v>37.584574992342048</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>0.44999999999998863</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>6.1999999999999886</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>7.2580645161288621E-2</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V100">
+        <v>349.06922690878923</v>
+      </c>
+      <c r="W100">
+        <v>344.77262650330738</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>4.2966004054818541</v>
+      </c>
+      <c r="Y100">
+        <v>6.9311254710909109</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>345.85</v>
+      </c>
+      <c r="D101">
+        <v>348.7</v>
+      </c>
+      <c r="E101">
+        <v>341.15</v>
+      </c>
+      <c r="F101">
+        <v>345</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>344.95</v>
+      </c>
+      <c r="H101">
+        <v>346.4216326943631</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>353.46196802449833</v>
+      </c>
+      <c r="K101">
+        <v>344.27130969207019</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>37.584574992342048</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>3.8500000000000227</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>7.5500000000000114</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.50993377483443936</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>348.44319199974473</v>
+      </c>
+      <c r="W101">
+        <v>344.78946898454387</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>3.6537230152008533</v>
+      </c>
+      <c r="Y101">
+        <v>6.275644979912899</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>345</v>
+      </c>
+      <c r="D102">
+        <v>351.75</v>
+      </c>
+      <c r="E102">
+        <v>339</v>
+      </c>
+      <c r="F102">
+        <v>340.4</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>343.7166666666667</v>
+      </c>
+      <c r="H102">
+        <v>345.0691496805149</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>353.08153068572091</v>
+      </c>
+      <c r="K102">
+        <v>343.0999075382768</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>27.300607038666602</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>1.3999999999999773</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>12.75</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.10980392156862567</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>347.20577784593786</v>
+      </c>
+      <c r="W102">
+        <v>344.4643231338369</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>2.7414547121009605</v>
+      </c>
+      <c r="Y102">
+        <v>5.5688069263505113</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>341.65</v>
+      </c>
+      <c r="D103">
+        <v>343.05</v>
+      </c>
+      <c r="E103">
+        <v>320.10000000000002</v>
+      </c>
+      <c r="F103">
+        <v>333</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>332.05</v>
+      </c>
+      <c r="H103">
+        <v>338.55957484025748</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>350.8523016444496</v>
+      </c>
+      <c r="K103">
+        <v>337.9888169742153</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>17.610815422791799</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>12.899999999999977</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>22.949999999999989</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.56209150326797319</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>345.02027356194742</v>
+      </c>
+      <c r="W103">
+        <v>343.61511401281194</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>1.405159549135476</v>
+      </c>
+      <c r="Y103">
+        <v>4.7360774509075041</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>333</v>
+      </c>
+      <c r="D104">
+        <v>341.15</v>
+      </c>
+      <c r="E104">
+        <v>332.55</v>
+      </c>
+      <c r="F104">
+        <v>335</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>336.23333333333335</v>
+      </c>
+      <c r="H104">
+        <v>337.39645408679542</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>348.69623461234966</v>
+      </c>
+      <c r="K104">
+        <v>336.78019097994525</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>26.432226034986716</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>2.4499999999999886</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>8.5999999999999659</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.28488372093023234</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>343.47869301395554</v>
+      </c>
+      <c r="W104">
+        <v>342.97695741927032</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>0.50173559468521489</v>
+      </c>
+      <c r="Y104">
+        <v>3.8892090796630461</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>336</v>
+      </c>
+      <c r="D105">
+        <v>341.4</v>
+      </c>
+      <c r="E105">
+        <v>326.05</v>
+      </c>
+      <c r="F105">
+        <v>327.39999999999998</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>331.61666666666667</v>
+      </c>
+      <c r="H105">
+        <v>334.50656037673104</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>347.0748491429386</v>
+      </c>
+      <c r="K105">
+        <v>334.395704095513</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>17.521232951583503</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>1.3499999999999659</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>15.349999999999966</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>8.7947882736154323E-2</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V105">
+        <v>341.00504793488545</v>
+      </c>
+      <c r="W105">
+        <v>341.82310872154659</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-0.81806078666113535</v>
+      </c>
+      <c r="Y105">
+        <v>2.9477551063982097</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>329</v>
+      </c>
+      <c r="D106">
+        <v>329.5</v>
+      </c>
+      <c r="E106">
+        <v>316.10000000000002</v>
+      </c>
+      <c r="F106">
+        <v>316.5</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>320.7</v>
+      </c>
+      <c r="H106">
+        <v>327.60328018836549</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>343.16932711117448</v>
+      </c>
+      <c r="K106">
+        <v>330.32999207428787</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>10.920825428764228</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>0.39999999999997726</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>13.399999999999977</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>2.9850746268655071E-2</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V106">
+        <v>337.2350405602877</v>
+      </c>
+      <c r="W106">
+        <v>339.94732289032089</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-2.7122823300331902</v>
+      </c>
+      <c r="Y106">
+        <v>1.8157476191119295</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD106">
+        <f t="shared" si="35"/>
+        <v>327.95000000000005</v>
+      </c>
+      <c r="AE106">
+        <f t="shared" si="36"/>
+        <v>324.40000000000003</v>
+      </c>
+      <c r="AF106">
+        <f t="shared" si="37"/>
+        <v>322.8</v>
+      </c>
+      <c r="AG106">
+        <f t="shared" si="38"/>
+        <v>321.20000000000005</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>318</v>
+      </c>
+      <c r="D107">
+        <v>336.4</v>
+      </c>
+      <c r="E107">
+        <v>316.5</v>
+      </c>
+      <c r="F107">
+        <v>332.5</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>328.46666666666664</v>
+      </c>
+      <c r="H107">
+        <v>328.03497342751609</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>341.66503219758016</v>
+      </c>
+      <c r="K107">
+        <v>327.25666050222389</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>47.328119833671643</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>16</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>19.899999999999977</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.80402010050251349</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>336.50657278178193</v>
+      </c>
+      <c r="W107">
+        <v>339.39566934288973</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-2.8890965611078059</v>
+      </c>
+      <c r="Y107">
+        <v>0.87477878306798229</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
